--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8990_ContextPropertiesInDatatypeErrors.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8990_ContextPropertiesInDatatypeErrors.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8990_ContextPropertiesInDatatype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BF9EA1-3A2F-4E15-8834-CFE42DC4819A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D489B-652E-492C-806E-8934840C96D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datatypes" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Datatype MyDatatype</t>
   </si>
@@ -43,9 +53,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>effectiveDate : context</t>
-  </si>
-  <si>
     <t>Datatype MyDatatype4</t>
   </si>
   <si>
@@ -53,17 +60,105 @@
   </si>
   <si>
     <t>currentDate : context</t>
+  </si>
+  <si>
+    <t>state:context.usState</t>
+  </si>
+  <si>
+    <t>state2:context.usState</t>
+  </si>
+  <si>
+    <t>Datatype MyDatatype5</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>caProvinces</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>=$Step1</t>
+  </si>
+  <si>
+    <t>Test  mySpr2</t>
+  </si>
+  <si>
+    <t>_context_.caProvince</t>
+  </si>
+  <si>
+    <t>myVar.myProvince</t>
+  </si>
+  <si>
+    <t>myVar1.myProvince</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>myVar.someField</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>myProvince:context.caProvince</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>someField</t>
+  </si>
+  <si>
+    <t>Datatype  MyDatatype6</t>
+  </si>
+  <si>
+    <t>Spreadsheet Double mySpr2(MyDatatype6 myVar,MyDatatype6 myVar1 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,18 +178,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{C51E89A2-DD65-4784-8278-88129C7BE6EA}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C7A4F8F7-4A95-4A3A-BD2F-6296B8453347}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -454,13 +584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2C2B0-A6B6-4D9C-AF3D-AA7665971633}">
-  <dimension ref="B4:C23"/>
+  <dimension ref="B4:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -500,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
@@ -513,7 +648,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -522,38 +657,186 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
+        <v>200</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8990_ContextPropertiesInDatatypeErrors.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8990_ContextPropertiesInDatatypeErrors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D489B-652E-492C-806E-8934840C96D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD268442-E78A-45A6-A01E-13A6DF635E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datatypes" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Datatype MyDatatype</t>
   </si>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2C2B0-A6B6-4D9C-AF3D-AA7665971633}">
-  <dimension ref="B4:E36"/>
+  <dimension ref="B4:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -808,13 +808,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -822,12 +822,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
